--- a/biology/Zoologie/Coptoclaviscinae/Coptoclaviscinae.xlsx
+++ b/biology/Zoologie/Coptoclaviscinae/Coptoclaviscinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coptoclaviscinae forment une sous-famille éteinte de coléoptères du sous-ordre des Adephaga et de la famille éteinte des Coptoclavidae. 
 </t>
@@ -511,11 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Coptoclaviscinae est décrite en 2007 par Soriano, Ponomarenko &amp; Delclos[1],[2].
-Fossiles
-Les différentes espèces datent du Jurassique supérieur au Crétacé inférieur et ont été trouvées en Chine, Mongolia, en Russie, en Espagne et au Royaume-Uni. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Coptoclaviscinae est décrite en 2007 par Soriano, Ponomarenko &amp; Delclos,.
 </t>
         </is>
       </c>
@@ -541,17 +553,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différentes espèces datent du Jurassique supérieur au Crétacé inférieur et ont été trouvées en Chine, Mongolia, en Russie, en Espagne et au Royaume-Uni. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coptoclaviscinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coptoclaviscinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib en 2023[3] :
-† Coptoclavisca Ponomarenko, 1987[3]
-Selon Fossilworks en 2023[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib en 2023 :
+† Coptoclavisca Ponomarenko, 1987
+Selon Fossilworks en 2023 :
 † Coptoclavella ;
 †Coptoclavisca ;
-†Stargelytron[2]</t>
+†Stargelytron</t>
         </is>
       </c>
     </row>
